--- a/R_code/temp/180_SVM.xlsx
+++ b/R_code/temp/180_SVM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\R\R_code\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0478E150-BFA0-41E1-AE9A-B7F986FA4BD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA1EA6F-5F3A-4F2D-8E87-5CC0B358CE2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,7 +408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -520,6 +520,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,11 +667,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3157,15 +3175,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O183"/>
+  <dimension ref="A1:T183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3196,8 +3214,17 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>3</v>
       </c>
@@ -3228,8 +3255,17 @@
       <c r="J2">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3260,8 +3296,17 @@
       <c r="J3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3292,8 +3337,17 @@
       <c r="J4">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3324,8 +3378,17 @@
       <c r="J5">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3356,8 +3419,17 @@
       <c r="J6">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3388,8 +3460,17 @@
       <c r="J7">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3</v>
       </c>
@@ -3420,8 +3501,17 @@
       <c r="J8">
         <v>32.299999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>5</v>
       </c>
@@ -3452,8 +3542,17 @@
       <c r="J9">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>3</v>
       </c>
@@ -3484,8 +3583,17 @@
       <c r="J10">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3516,8 +3624,17 @@
       <c r="J11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3548,8 +3665,17 @@
       <c r="J12">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>3</v>
       </c>
@@ -3580,8 +3706,17 @@
       <c r="J13">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>5</v>
       </c>
@@ -3612,8 +3747,17 @@
       <c r="J14">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>3</v>
       </c>
@@ -3644,8 +3788,17 @@
       <c r="J15">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>4</v>
       </c>
@@ -3676,15 +3829,21 @@
       <c r="J16">
         <v>2.6</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="L16" s="1"/>
+      <c r="M16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="O16">
+      <c r="N16" s="2"/>
+      <c r="O16" s="1">
         <v>9.3510000000000009</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>4</v>
       </c>
@@ -3715,16 +3874,22 @@
       <c r="J17">
         <v>2</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="L17" s="1"/>
+      <c r="M17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N17" s="1"/>
-      <c r="O17">
+      <c r="N17" s="2"/>
+      <c r="O17" s="1">
         <f>CORREL(H2:H183,I2:I183)</f>
         <v>0.93076104047605646</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3755,8 +3920,17 @@
       <c r="J18">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>4</v>
       </c>
@@ -3787,8 +3961,17 @@
       <c r="J19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>5</v>
       </c>
@@ -3820,7 +4003,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3852,7 +4035,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>5</v>
       </c>
@@ -3884,7 +4067,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>3</v>
       </c>
@@ -3916,7 +4099,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>5</v>
       </c>
@@ -3948,7 +4131,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3980,7 +4163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1</v>
       </c>
@@ -4012,7 +4195,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2</v>
       </c>
@@ -4044,7 +4227,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>4</v>
       </c>
@@ -4076,7 +4259,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>5</v>
       </c>
@@ -4108,7 +4291,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>5</v>
       </c>
@@ -4140,7 +4323,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>5</v>
       </c>
@@ -4172,7 +4355,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>3</v>
       </c>
